--- a/Incremental/Resources/Virtus e Stats Base.xlsx
+++ b/Incremental/Resources/Virtus e Stats Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21870" windowHeight="8535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>Elenco Virtus</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Leatà</t>
   </si>
   <si>
-    <t>Pietà</t>
-  </si>
-  <si>
     <t>Vigore</t>
   </si>
   <si>
@@ -55,15 +52,9 @@
     <t>Ira</t>
   </si>
   <si>
-    <t>Temperanza</t>
-  </si>
-  <si>
     <t>Punti Vita</t>
   </si>
   <si>
-    <t>Difesa base</t>
-  </si>
-  <si>
     <t>Punti Azione</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>Oscurità</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Chance Critico (%)</t>
   </si>
   <si>
@@ -104,13 +92,109 @@
   </si>
   <si>
     <t xml:space="preserve">Precisione </t>
+  </si>
+  <si>
+    <t>Volontà</t>
+  </si>
+  <si>
+    <t>Exedia</t>
+  </si>
+  <si>
+    <t>CORAGGIO</t>
+  </si>
+  <si>
+    <t>+ Danno Fisico</t>
+  </si>
+  <si>
+    <t>+ Danno Fuoco</t>
+  </si>
+  <si>
+    <t>+ Danno Sacro</t>
+  </si>
+  <si>
+    <t>ASTUZIA</t>
+  </si>
+  <si>
+    <t>+ Chance Critico</t>
+  </si>
+  <si>
+    <t>+ Evasione</t>
+  </si>
+  <si>
+    <t>LEALTA'</t>
+  </si>
+  <si>
+    <t>Resistenza</t>
+  </si>
+  <si>
+    <t>+ Resistenza</t>
+  </si>
+  <si>
+    <t>+ Precisione</t>
+  </si>
+  <si>
+    <t>Fede</t>
+  </si>
+  <si>
+    <t>FEDE</t>
+  </si>
+  <si>
+    <t>VIGORE</t>
+  </si>
+  <si>
+    <t>+ Punti Vita</t>
+  </si>
+  <si>
+    <t>PRUDENZA</t>
+  </si>
+  <si>
+    <t>SPERANZA</t>
+  </si>
+  <si>
+    <t>+ Danno Vento</t>
+  </si>
+  <si>
+    <t>+ Danno Acqua</t>
+  </si>
+  <si>
+    <t>GIUSTIZIA</t>
+  </si>
+  <si>
+    <t>Danno Critico (%)</t>
+  </si>
+  <si>
+    <t>+ Danno Critico</t>
+  </si>
+  <si>
+    <t>PERSEVERANZA</t>
+  </si>
+  <si>
+    <t>+ Danno Terra</t>
+  </si>
+  <si>
+    <t>IRA</t>
+  </si>
+  <si>
+    <t>+ Danno Oscurità</t>
+  </si>
+  <si>
+    <t>VOLONTA'</t>
+  </si>
+  <si>
+    <t>+ Danno Exedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>+ PA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,16 +202,84 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -144,16 +296,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -434,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,137 +697,413 @@
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="15" width="18.7109375" customWidth="1"/>
+    <col min="16" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="14"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="G1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="K9" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F14" s="5"/>
+      <c r="J14" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -589,5 +1112,6 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Incremental/Resources/Virtus e Stats Base.xlsx
+++ b/Incremental/Resources/Virtus e Stats Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="8025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20955" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>Volontà</t>
   </si>
   <si>
-    <t>Exedia</t>
-  </si>
-  <si>
     <t>CORAGGIO</t>
   </si>
   <si>
@@ -181,13 +178,16 @@
     <t>VOLONTA'</t>
   </si>
   <si>
-    <t>+ Danno Exedia</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>+ PA</t>
+  </si>
+  <si>
+    <t>Puro</t>
+  </si>
+  <si>
+    <t>+ Danno Puro</t>
   </si>
 </sst>
 </file>
@@ -378,9 +378,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -401,6 +398,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -684,7 +684,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,19 +702,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="14"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -732,17 +732,17 @@
       <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>38</v>
+      <c r="J2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -756,17 +756,17 @@
       <c r="G3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="22" t="s">
-        <v>29</v>
+      <c r="J3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -776,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -787,24 +787,24 @@
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="19" t="s">
+      <c r="J4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>35</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -818,17 +818,17 @@
       <c r="G5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>31</v>
+      <c r="J5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -861,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -872,17 +872,17 @@
       <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="30" t="s">
+      <c r="J7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>45</v>
+      <c r="M7" s="29" t="s">
+        <v>44</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -903,17 +903,17 @@
       <c r="G8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>47</v>
+      <c r="J8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -932,19 +932,19 @@
         <v>2</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -953,17 +953,17 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="16" t="s">
+      <c r="J10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="25" t="s">
         <v>55</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -983,28 +983,28 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>52</v>
+      <c r="J12" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>51</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>35</v>
+      <c r="J13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1012,30 +1012,30 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F14" s="5"/>
-      <c r="J14" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="32" t="s">
-        <v>55</v>
+      <c r="J14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>43</v>
+      <c r="J15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>

--- a/Incremental/Resources/Virtus e Stats Base.xlsx
+++ b/Incremental/Resources/Virtus e Stats Base.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20955" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6750" tabRatio="285"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="PANORAMICA" sheetId="1" r:id="rId1"/>
+    <sheet name="VIRTUS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:M20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Elenco Virtus</t>
   </si>
@@ -31,170 +32,188 @@
     <t>Astuzia</t>
   </si>
   <si>
-    <t>Leatà</t>
-  </si>
-  <si>
     <t>Vigore</t>
   </si>
   <si>
-    <t>Prudenza</t>
-  </si>
-  <si>
-    <t>Speranza</t>
-  </si>
-  <si>
     <t>Giustizia</t>
   </si>
   <si>
-    <t>Perseveranza</t>
-  </si>
-  <si>
-    <t>Ira</t>
-  </si>
-  <si>
     <t>Punti Vita</t>
   </si>
   <si>
-    <t>Punti Azione</t>
-  </si>
-  <si>
     <t>Statistiche Base</t>
   </si>
   <si>
+    <t>Volontà</t>
+  </si>
+  <si>
+    <t>Resistenza</t>
+  </si>
+  <si>
+    <t>Evasione</t>
+  </si>
+  <si>
+    <t>Chance Critico</t>
+  </si>
+  <si>
+    <t>Il personaggio avrà a disposizione delle statistiche base e delle virtus che ne identificano i comportamenti all'interno della storia</t>
+  </si>
+  <si>
+    <t>Equipaggiamento</t>
+  </si>
+  <si>
+    <t>Arma</t>
+  </si>
+  <si>
+    <t>Armatura</t>
+  </si>
+  <si>
+    <t>Anello 1</t>
+  </si>
+  <si>
+    <t>Anello 2</t>
+  </si>
+  <si>
+    <t>Energia</t>
+  </si>
+  <si>
+    <t>Forza Fisica</t>
+  </si>
+  <si>
+    <t>Forza Mentale</t>
+  </si>
+  <si>
+    <t>Plus Danni Fisici/Mentali (+ Chance Critico)</t>
+  </si>
+  <si>
+    <t>Plus Resistenza/Evasione (+PV)</t>
+  </si>
+  <si>
+    <t>Plus Energia/Chance Critico (+ Random)</t>
+  </si>
+  <si>
+    <t>Plus Energia/Chance Critico (+Random)</t>
+  </si>
+  <si>
+    <t>Forza Fisica 2 significa che con un attacco base verranno inflitti 2 danni fisici, ai quali va sottratta la resistenza dell'avversario.</t>
+  </si>
+  <si>
+    <t>Le armi potranno fare danno Fisico o Mentale, come le abilita' e ne incrementeranno il valore</t>
+  </si>
+  <si>
+    <t>Evasione e Critico sono % (danno critico = doppio danno normale)</t>
+  </si>
+  <si>
+    <t>Elementi</t>
+  </si>
+  <si>
     <t>Acqua</t>
   </si>
   <si>
-    <t>Vento</t>
-  </si>
-  <si>
-    <t>Terra</t>
+    <t>Fuoco</t>
+  </si>
+  <si>
+    <t>Aria</t>
+  </si>
+  <si>
+    <t>Fisico</t>
   </si>
   <si>
     <t>Sacro</t>
   </si>
   <si>
-    <t>Oscurità</t>
-  </si>
-  <si>
-    <t>Chance Critico (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuoco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fisico </t>
-  </si>
-  <si>
-    <t>Tipologie Danno (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evasione </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precisione </t>
-  </si>
-  <si>
-    <t>Volontà</t>
+    <t>Oscuro</t>
+  </si>
+  <si>
+    <t>Puro</t>
+  </si>
+  <si>
+    <t>Abilità e Attacchi base consumeranno energia</t>
+  </si>
+  <si>
+    <t>Esistono abilità attive e passive</t>
+  </si>
+  <si>
+    <t>Arami e armature potranno avere requisiti di statistiche e/o virtus</t>
   </si>
   <si>
     <t>CORAGGIO</t>
   </si>
   <si>
-    <t>+ Danno Fisico</t>
-  </si>
-  <si>
-    <t>+ Danno Fuoco</t>
-  </si>
-  <si>
-    <t>+ Danno Sacro</t>
-  </si>
-  <si>
     <t>ASTUZIA</t>
   </si>
   <si>
-    <t>+ Chance Critico</t>
-  </si>
-  <si>
-    <t>+ Evasione</t>
-  </si>
-  <si>
-    <t>LEALTA'</t>
-  </si>
-  <si>
-    <t>Resistenza</t>
-  </si>
-  <si>
-    <t>+ Resistenza</t>
-  </si>
-  <si>
-    <t>+ Precisione</t>
-  </si>
-  <si>
-    <t>Fede</t>
-  </si>
-  <si>
-    <t>FEDE</t>
+    <t>Chance Critico, Evasione</t>
+  </si>
+  <si>
+    <t>Forza Mentale, Resistenza</t>
+  </si>
+  <si>
+    <t>VOLONTA'</t>
   </si>
   <si>
     <t>VIGORE</t>
   </si>
   <si>
-    <t>+ Punti Vita</t>
-  </si>
-  <si>
-    <t>PRUDENZA</t>
-  </si>
-  <si>
-    <t>SPERANZA</t>
-  </si>
-  <si>
-    <t>+ Danno Vento</t>
-  </si>
-  <si>
-    <t>+ Danno Acqua</t>
+    <t>Punti Vita, Resistenza</t>
   </si>
   <si>
     <t>GIUSTIZIA</t>
   </si>
   <si>
-    <t>Danno Critico (%)</t>
-  </si>
-  <si>
-    <t>+ Danno Critico</t>
-  </si>
-  <si>
-    <t>PERSEVERANZA</t>
-  </si>
-  <si>
-    <t>+ Danno Terra</t>
-  </si>
-  <si>
-    <t>IRA</t>
-  </si>
-  <si>
-    <t>+ Danno Oscurità</t>
-  </si>
-  <si>
-    <t>VOLONTA'</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>+ PA</t>
-  </si>
-  <si>
-    <t>Puro</t>
-  </si>
-  <si>
-    <t>+ Danno Puro</t>
+    <t>Forza Fisica, Energia</t>
+  </si>
+  <si>
+    <t>Forza Fisica, Forza Mentale</t>
+  </si>
+  <si>
+    <t>Per ottenere 1 Punto in una virtus si devono spendere 5 punti virtus in una determinata virtus</t>
+  </si>
+  <si>
+    <t>COME LE VIRTUS INFLUISCONO SULLE STATISTICHE</t>
+  </si>
+  <si>
+    <t>PUNTI VIRTUS</t>
+  </si>
+  <si>
+    <t>PUNTI ABILITA'</t>
+  </si>
+  <si>
+    <t>1 lv</t>
+  </si>
+  <si>
+    <t>F. Fisica</t>
+  </si>
+  <si>
+    <t>F. Mentale</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>% Crit</t>
+  </si>
+  <si>
+    <t>% Evas</t>
+  </si>
+  <si>
+    <t>Diminishing Return</t>
+  </si>
+  <si>
+    <t>Invece di salire di livello si ottengono punti crescita e punti abilità</t>
+  </si>
+  <si>
+    <t>Punti crescita si ottengono durante la storia o in determinate condizioni combattendo</t>
+  </si>
+  <si>
+    <t>Punti abilità si ottengono combattendo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +229,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,66 +253,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -297,9 +276,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -311,94 +319,42 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,151 +640,103 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="10" max="15" width="18.7109375" customWidth="1"/>
     <col min="16" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="32"/>
-      <c r="G1" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="32"/>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="3"/>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>28</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>34</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>30</v>
+      <c r="G5" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -837,243 +745,235 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="29" t="s">
-        <v>44</v>
-      </c>
+      <c r="G7" s="5"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>46</v>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>35</v>
+      <c r="G9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>55</v>
-      </c>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="G10" s="5"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="2"/>
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F14" s="5"/>
-      <c r="J14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="26" t="s">
+      <c r="G15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="H15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="G16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="10:15" x14ac:dyDescent="0.25">
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1081,7 +981,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1089,7 +989,7 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1097,7 +997,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="10:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1106,12 +1006,157 @@
       <c r="O23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16">
+        <v>10</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Incremental/Resources/Virtus e Stats Base.xlsx
+++ b/Incremental/Resources/Virtus e Stats Base.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="6750" tabRatio="285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="8325" tabRatio="285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PANORAMICA" sheetId="1" r:id="rId1"/>
     <sheet name="VIRTUS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:U25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -332,14 +332,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,6 +349,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -639,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -658,15 +658,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -798,10 +798,10 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="15"/>
       <c r="G10" s="5"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -837,19 +837,19 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
@@ -861,55 +861,55 @@
         <v>23</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="G16" s="7" t="s">
+      <c r="B16" s="15"/>
+      <c r="G16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
@@ -923,19 +923,19 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
@@ -946,13 +946,13 @@
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
     </row>
@@ -963,13 +963,13 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
@@ -1021,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1041,117 +1041,117 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>56</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="15">
+      <c r="B4" s="11"/>
+      <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="16">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="14">
         <v>1</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="16">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>1</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>10</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="16">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="14">
         <v>1</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="16">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Incremental/Resources/Virtus e Stats Base.xlsx
+++ b/Incremental/Resources/Virtus e Stats Base.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="8325" tabRatio="285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21705" windowHeight="8160" tabRatio="285"/>
   </bookViews>
   <sheets>
     <sheet name="PANORAMICA" sheetId="1" r:id="rId1"/>
     <sheet name="VIRTUS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:U25"/>
+  <oleSize ref="A1:M19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,9 +134,6 @@
     <t>Esistono abilità attive e passive</t>
   </si>
   <si>
-    <t>Arami e armature potranno avere requisiti di statistiche e/o virtus</t>
-  </si>
-  <si>
     <t>CORAGGIO</t>
   </si>
   <si>
@@ -167,15 +164,9 @@
     <t>Forza Fisica, Forza Mentale</t>
   </si>
   <si>
-    <t>Per ottenere 1 Punto in una virtus si devono spendere 5 punti virtus in una determinata virtus</t>
-  </si>
-  <si>
     <t>COME LE VIRTUS INFLUISCONO SULLE STATISTICHE</t>
   </si>
   <si>
-    <t>PUNTI VIRTUS</t>
-  </si>
-  <si>
     <t>PUNTI ABILITA'</t>
   </si>
   <si>
@@ -207,6 +198,15 @@
   </si>
   <si>
     <t>Punti abilità si ottengono combattendo</t>
+  </si>
+  <si>
+    <t>PUNTI CRESCITA</t>
+  </si>
+  <si>
+    <t>Per ottenere 1 Punto in una virtus si devono spendere 5 punti crescita in una determinata virtus</t>
+  </si>
+  <si>
+    <t>Armi e armature potranno avere requisiti di statistiche e/o virtus, così come le abilità</t>
   </si>
 </sst>
 </file>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +782,7 @@
         <v>35</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -792,7 +792,7 @@
         <v>36</v>
       </c>
       <c r="L9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -815,7 +815,7 @@
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="5" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -838,14 +838,14 @@
         <v>22</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -862,14 +862,14 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -879,10 +879,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -898,14 +898,14 @@
       </c>
       <c r="B16" s="15"/>
       <c r="G16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -924,14 +924,14 @@
         <v>34</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,18 +1037,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G2" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>5</v>
@@ -1057,19 +1057,19 @@
         <v>17</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="I3" s="3"/>
     </row>

--- a/Incremental/Resources/Virtus e Stats Base.xlsx
+++ b/Incremental/Resources/Virtus e Stats Base.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FCEDF420-F680-44B3-84C8-93D4B747A937}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21705" windowHeight="8160" tabRatio="285"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21765" windowHeight="15090" tabRatio="285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PANORAMICA" sheetId="1" r:id="rId1"/>
     <sheet name="VIRTUS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M19"/>
+  <oleSize ref="A1:U24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -212,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -636,11 +637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,11 +1019,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
